--- a/program.xlsx
+++ b/program.xlsx
@@ -3745,7 +3745,7 @@
     <t>Nikdo není dokonalý</t>
   </si>
   <si>
-    <t>Herečtí kolegové Vlastimil Bedrna a Jitka Sedláčková v oblíbeném pořadu Jiřího Krampola. Režie: Vaaaa Nouzák</t>
+    <t>Herečtí kolegové Vlastimil Bedrna a Jitka Sedláčková v oblíbeném pořadu Jiřího Krampola. Režie: V. Nouzák</t>
   </si>
   <si>
     <t>Tentokrát budou tipovat počet správných odpovědí v oblíbeném pořadu Jiřího Krampola herečtí kolegové Vlastimil Bedrna a Jitka Sedláčková. Podělí se s námi také o nejrůznější zážitky z hereckých kuloárů, takže o příjemnou zábavu opět nouze nebude. A jako vždy má Jiří Krampol přichystány záludné otázky pro náhodné "oběti", ochotné odpovídat...</t>
@@ -3856,15 +3856,17 @@
   </sheetPr>
   <dimension ref="A1:G676"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A676" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D676" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F676" activeCellId="0" sqref="F676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="91.5408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="99.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,7 +4153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="857.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>1760537908</v>
       </c>
